--- a/database/industries/zeraat/simorgh/cashflow/yearly.xlsx
+++ b/database/industries/zeraat/simorgh/cashflow/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC046881-ACFB-426F-BB4A-89CA8A5889CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سیمرغ-سیمرغ</t>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -51,19 +49,22 @@
     <t>12 ماهه منتهی به 1400/09</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1397-12-28 (4)</t>
-  </si>
-  <si>
     <t>1400-02-27 (11)</t>
   </si>
   <si>
     <t>1400-12-25 (11)</t>
   </si>
   <si>
-    <t>1401-08-21 (10)</t>
+    <t>1401-12-08 (13)</t>
+  </si>
+  <si>
+    <t>1401-12-08</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -216,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,7 +415,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -426,7 +427,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -473,6 +474,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -508,6 +526,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -659,7 +694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -768,10 +803,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
         <v>12</v>
       </c>
@@ -807,20 +842,20 @@
         <v>16</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="15">
-        <v>1439002</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>17</v>
+      <c r="D12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="15">
+        <v>846418</v>
       </c>
       <c r="F12" s="15">
-        <v>846418</v>
+        <v>1978910</v>
       </c>
       <c r="G12" s="15">
-        <v>1978910</v>
+        <v>5452514</v>
       </c>
       <c r="H12" s="15">
-        <v>5452514</v>
+        <v>3724571</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -828,20 +863,20 @@
         <v>18</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11">
-        <v>-17382</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>17</v>
+      <c r="D13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-11721</v>
       </c>
       <c r="F13" s="11">
-        <v>-11721</v>
+        <v>-14302</v>
       </c>
       <c r="G13" s="11">
-        <v>-14302</v>
+        <v>-15493</v>
       </c>
       <c r="H13" s="11">
-        <v>-15493</v>
+        <v>-31654</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -849,20 +884,20 @@
         <v>19</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="17">
-        <v>1421620</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>17</v>
+      <c r="D14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="17">
+        <v>834697</v>
       </c>
       <c r="F14" s="17">
-        <v>834697</v>
+        <v>1964608</v>
       </c>
       <c r="G14" s="17">
-        <v>1964608</v>
+        <v>5437021</v>
       </c>
       <c r="H14" s="17">
-        <v>5437021</v>
+        <v>3692917</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -879,11 +914,11 @@
       <c r="F15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>17</v>
+      <c r="G15" s="11">
+        <v>167240</v>
       </c>
       <c r="H15" s="11">
-        <v>167240</v>
+        <v>505894</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -900,11 +935,11 @@
       <c r="F16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>17</v>
+      <c r="G16" s="15">
+        <v>-1477405</v>
       </c>
       <c r="H16" s="15">
-        <v>-1477405</v>
+        <v>-3313775</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -923,20 +958,20 @@
         <v>23</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>550</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>17</v>
+      <c r="D18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="15">
+        <v>306</v>
       </c>
       <c r="F18" s="15">
-        <v>306</v>
+        <v>3058</v>
       </c>
       <c r="G18" s="15">
-        <v>3058</v>
+        <v>6358</v>
       </c>
       <c r="H18" s="15">
-        <v>6358</v>
+        <v>7598</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -944,20 +979,20 @@
         <v>24</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="11">
-        <v>-111074</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>17</v>
+      <c r="D19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="11">
+        <v>-348241</v>
       </c>
       <c r="F19" s="11">
-        <v>-348241</v>
+        <v>-412007</v>
       </c>
       <c r="G19" s="11">
-        <v>-412007</v>
+        <v>-1200073</v>
       </c>
       <c r="H19" s="11">
-        <v>-1200073</v>
+        <v>-831209</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -968,8 +1003,8 @@
       <c r="D20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>17</v>
+      <c r="E20" s="15">
+        <v>0</v>
       </c>
       <c r="F20" s="15">
         <v>0</v>
@@ -986,17 +1021,17 @@
         <v>26</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="11">
-        <v>54375</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>17</v>
+      <c r="D21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="11">
+        <v>143164</v>
       </c>
       <c r="F21" s="11">
-        <v>143164</v>
+        <v>130490</v>
       </c>
       <c r="G21" s="11">
-        <v>130490</v>
+        <v>0</v>
       </c>
       <c r="H21" s="11">
         <v>0</v>
@@ -1007,20 +1042,20 @@
         <v>27</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="15">
-        <v>-1494</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>17</v>
+      <c r="D22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="15">
+        <v>-4592</v>
       </c>
       <c r="F22" s="15">
-        <v>-4592</v>
+        <v>-2343</v>
       </c>
       <c r="G22" s="15">
-        <v>-2343</v>
+        <v>-133267</v>
       </c>
       <c r="H22" s="15">
-        <v>-133267</v>
+        <v>-25037</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -1028,11 +1063,11 @@
         <v>28</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="11">
-        <v>0</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>17</v>
+      <c r="D23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
       </c>
       <c r="F23" s="11">
         <v>0</v>
@@ -1049,11 +1084,11 @@
         <v>29</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="15">
-        <v>0</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>17</v>
+      <c r="D24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
       </c>
       <c r="F24" s="15">
         <v>0</v>
@@ -1070,14 +1105,14 @@
         <v>30</v>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>17</v>
+      <c r="D25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="11">
+        <v>10551</v>
       </c>
       <c r="F25" s="11">
-        <v>10551</v>
+        <v>0</v>
       </c>
       <c r="G25" s="11">
         <v>0</v>
@@ -1091,20 +1126,20 @@
         <v>31</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="D26" s="15">
-        <v>-96900</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>17</v>
+      <c r="D26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0</v>
       </c>
       <c r="F26" s="15">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G26" s="15">
-        <v>-200</v>
+        <v>-900000</v>
       </c>
       <c r="H26" s="15">
-        <v>-900000</v>
+        <v>-100000</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1112,17 +1147,17 @@
         <v>32</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="11">
-        <v>0</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>17</v>
+      <c r="D27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="11">
+        <v>50075</v>
       </c>
       <c r="F27" s="11">
-        <v>50075</v>
+        <v>18825</v>
       </c>
       <c r="G27" s="11">
-        <v>18825</v>
+        <v>0</v>
       </c>
       <c r="H27" s="11">
         <v>0</v>
@@ -1133,11 +1168,11 @@
         <v>33</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="15">
-        <v>-51726</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>17</v>
+      <c r="D28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
       </c>
       <c r="F28" s="15">
         <v>0</v>
@@ -1146,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="15">
-        <v>0</v>
+        <v>-37396</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -1154,11 +1189,11 @@
         <v>34</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="11">
-        <v>0</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>17</v>
+      <c r="D29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0</v>
       </c>
       <c r="F29" s="11">
         <v>0</v>
@@ -1175,17 +1210,17 @@
         <v>35</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>-546464</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>17</v>
+      <c r="D30" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="15">
+        <v>-1071163</v>
       </c>
       <c r="F30" s="15">
-        <v>-1071163</v>
+        <v>-969132</v>
       </c>
       <c r="G30" s="15">
-        <v>-969132</v>
+        <v>0</v>
       </c>
       <c r="H30" s="15">
         <v>0</v>
@@ -1199,8 +1234,8 @@
       <c r="D31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>17</v>
+      <c r="E31" s="11">
+        <v>0</v>
       </c>
       <c r="F31" s="11">
         <v>0</v>
@@ -1217,11 +1252,11 @@
         <v>37</v>
       </c>
       <c r="C32" s="15"/>
-      <c r="D32" s="15">
-        <v>0</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>17</v>
+      <c r="D32" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0</v>
       </c>
       <c r="F32" s="15">
         <v>0</v>
@@ -1238,20 +1273,20 @@
         <v>38</v>
       </c>
       <c r="C33" s="11"/>
-      <c r="D33" s="11">
-        <v>40675</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>17</v>
+      <c r="D33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="11">
+        <v>11031</v>
       </c>
       <c r="F33" s="11">
-        <v>11031</v>
+        <v>5383</v>
       </c>
       <c r="G33" s="11">
-        <v>5383</v>
+        <v>49182</v>
       </c>
       <c r="H33" s="11">
-        <v>49182</v>
+        <v>361718</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -1259,20 +1294,20 @@
         <v>39</v>
       </c>
       <c r="C34" s="17"/>
-      <c r="D34" s="17">
-        <v>-712058</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>17</v>
+      <c r="D34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="17">
+        <v>-1208869</v>
       </c>
       <c r="F34" s="17">
-        <v>-1208869</v>
+        <v>-1225926</v>
       </c>
       <c r="G34" s="17">
-        <v>-1225926</v>
+        <v>-3487965</v>
       </c>
       <c r="H34" s="17">
-        <v>-3487965</v>
+        <v>-3432207</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -1280,20 +1315,20 @@
         <v>40</v>
       </c>
       <c r="C35" s="19"/>
-      <c r="D35" s="19">
-        <v>709562</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>17</v>
+      <c r="D35" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="19">
+        <v>-374172</v>
       </c>
       <c r="F35" s="19">
-        <v>-374172</v>
+        <v>738682</v>
       </c>
       <c r="G35" s="19">
-        <v>738682</v>
+        <v>1949056</v>
       </c>
       <c r="H35" s="19">
-        <v>1949056</v>
+        <v>260710</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -1312,11 +1347,11 @@
         <v>42</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="D37" s="15">
-        <v>0</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>17</v>
+      <c r="D37" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0</v>
       </c>
       <c r="F37" s="15">
         <v>0</v>
@@ -1342,8 +1377,8 @@
       <c r="F38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>17</v>
+      <c r="G38" s="11">
+        <v>0</v>
       </c>
       <c r="H38" s="11">
         <v>0</v>
@@ -1354,11 +1389,11 @@
         <v>44</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15">
-        <v>0</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>17</v>
+      <c r="D39" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0</v>
       </c>
       <c r="F39" s="15">
         <v>0</v>
@@ -1367,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="15">
-        <v>0</v>
+        <v>163231</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -1375,20 +1410,20 @@
         <v>45</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="11">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>17</v>
+      <c r="D40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0</v>
       </c>
       <c r="F40" s="11">
         <v>0</v>
       </c>
       <c r="G40" s="11">
-        <v>0</v>
+        <v>-116095</v>
       </c>
       <c r="H40" s="11">
-        <v>-116095</v>
+        <v>-139740</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -1396,20 +1431,20 @@
         <v>46</v>
       </c>
       <c r="C41" s="15"/>
-      <c r="D41" s="15">
-        <v>0</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>17</v>
+      <c r="D41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="15">
+        <v>250000</v>
       </c>
       <c r="F41" s="15">
-        <v>250000</v>
+        <v>800000</v>
       </c>
       <c r="G41" s="15">
-        <v>800000</v>
+        <v>270000</v>
       </c>
       <c r="H41" s="15">
-        <v>270000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -1417,20 +1452,20 @@
         <v>47</v>
       </c>
       <c r="C42" s="11"/>
-      <c r="D42" s="11">
-        <v>-593090</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>17</v>
+      <c r="D42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="11">
+        <v>-7393</v>
       </c>
       <c r="F42" s="11">
-        <v>-7393</v>
+        <v>-650000</v>
       </c>
       <c r="G42" s="11">
-        <v>-650000</v>
+        <v>-670000</v>
       </c>
       <c r="H42" s="11">
-        <v>-670000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -1438,20 +1473,20 @@
         <v>48</v>
       </c>
       <c r="C43" s="15"/>
-      <c r="D43" s="15">
-        <v>-113595</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>17</v>
+      <c r="D43" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="15">
+        <v>-11682</v>
       </c>
       <c r="F43" s="15">
-        <v>-11682</v>
+        <v>-40893</v>
       </c>
       <c r="G43" s="15">
-        <v>-40893</v>
+        <v>-41716</v>
       </c>
       <c r="H43" s="15">
-        <v>-41716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -1462,8 +1497,8 @@
       <c r="D44" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>17</v>
+      <c r="E44" s="11">
+        <v>0</v>
       </c>
       <c r="F44" s="11">
         <v>0</v>
@@ -1483,8 +1518,8 @@
       <c r="D45" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>17</v>
+      <c r="E45" s="15">
+        <v>0</v>
       </c>
       <c r="F45" s="15">
         <v>0</v>
@@ -1504,8 +1539,8 @@
       <c r="D46" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>17</v>
+      <c r="E46" s="11">
+        <v>0</v>
       </c>
       <c r="F46" s="11">
         <v>0</v>
@@ -1525,8 +1560,8 @@
       <c r="D47" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="15" t="s">
-        <v>17</v>
+      <c r="E47" s="15">
+        <v>0</v>
       </c>
       <c r="F47" s="15">
         <v>0</v>
@@ -1546,8 +1581,8 @@
       <c r="D48" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>17</v>
+      <c r="E48" s="11">
+        <v>0</v>
       </c>
       <c r="F48" s="11">
         <v>0</v>
@@ -1567,8 +1602,8 @@
       <c r="D49" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>17</v>
+      <c r="E49" s="15">
+        <v>0</v>
       </c>
       <c r="F49" s="15">
         <v>0</v>
@@ -1588,8 +1623,8 @@
       <c r="D50" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>17</v>
+      <c r="E50" s="11">
+        <v>0</v>
       </c>
       <c r="F50" s="11">
         <v>0</v>
@@ -1609,8 +1644,8 @@
       <c r="D51" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="15" t="s">
-        <v>17</v>
+      <c r="E51" s="15">
+        <v>0</v>
       </c>
       <c r="F51" s="15">
         <v>0</v>
@@ -1627,20 +1662,20 @@
         <v>57</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="11">
-        <v>-58196</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>17</v>
+      <c r="D52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="11">
+        <v>-155137</v>
       </c>
       <c r="F52" s="11">
-        <v>-155137</v>
+        <v>-162420</v>
       </c>
       <c r="G52" s="11">
-        <v>-162420</v>
+        <v>-210269</v>
       </c>
       <c r="H52" s="11">
-        <v>-210269</v>
+        <v>-1229692</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -1648,20 +1683,20 @@
         <v>58</v>
       </c>
       <c r="C53" s="17"/>
-      <c r="D53" s="17">
-        <v>-764881</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>17</v>
+      <c r="D53" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="17">
+        <v>75788</v>
       </c>
       <c r="F53" s="17">
-        <v>75788</v>
+        <v>-53313</v>
       </c>
       <c r="G53" s="17">
-        <v>-53313</v>
+        <v>-768080</v>
       </c>
       <c r="H53" s="17">
-        <v>-768080</v>
+        <v>-1206201</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -1669,20 +1704,20 @@
         <v>59</v>
       </c>
       <c r="C54" s="19"/>
-      <c r="D54" s="19">
-        <v>-55319</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>17</v>
+      <c r="D54" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="19">
+        <v>-298384</v>
       </c>
       <c r="F54" s="19">
-        <v>-298384</v>
+        <v>685369</v>
       </c>
       <c r="G54" s="19">
-        <v>685369</v>
+        <v>1180976</v>
       </c>
       <c r="H54" s="19">
-        <v>1180976</v>
+        <v>-945491</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -1690,20 +1725,20 @@
         <v>60</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="15">
-        <v>137289</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>17</v>
+      <c r="D55" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="15">
+        <v>429284</v>
       </c>
       <c r="F55" s="15">
-        <v>429284</v>
+        <v>130900</v>
       </c>
       <c r="G55" s="15">
-        <v>130900</v>
+        <v>816269</v>
       </c>
       <c r="H55" s="15">
-        <v>816269</v>
+        <v>1997299</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -1711,20 +1746,20 @@
         <v>61</v>
       </c>
       <c r="C56" s="11"/>
-      <c r="D56" s="11">
-        <v>0</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>17</v>
+      <c r="D56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0</v>
       </c>
       <c r="F56" s="11">
         <v>0</v>
       </c>
       <c r="G56" s="11">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H56" s="11">
-        <v>54</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -1732,20 +1767,20 @@
         <v>62</v>
       </c>
       <c r="C57" s="17"/>
-      <c r="D57" s="17">
-        <v>81970</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>17</v>
+      <c r="D57" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="17">
+        <v>130900</v>
       </c>
       <c r="F57" s="17">
-        <v>130900</v>
+        <v>816269</v>
       </c>
       <c r="G57" s="17">
-        <v>816269</v>
+        <v>1997299</v>
       </c>
       <c r="H57" s="17">
-        <v>1997299</v>
+        <v>1053236</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -1753,11 +1788,11 @@
         <v>63</v>
       </c>
       <c r="C58" s="11"/>
-      <c r="D58" s="11">
-        <v>0</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>17</v>
+      <c r="D58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="11">
+        <v>0</v>
       </c>
       <c r="F58" s="11">
         <v>0</v>
